--- a/percentage.xlsx
+++ b/percentage.xlsx
@@ -25,7 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>Food</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vacation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Electricity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plumbing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone</x:t>
+  </x:si>
   <x:si>
     <x:t>Gym membership</x:t>
   </x:si>
@@ -369,7 +390,7 @@
   <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A8" sqref="A8 1:1048576"/>
+      <x:selection activeCell="C13" sqref="C13 1:1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,10 +400,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="n">
-        <x:v>452</x:v>
+        <x:v>5178</x:v>
       </x:c>
       <x:c r="C1" s="0" t="n">
-        <x:v>17.9793158313445</x:v>
+        <x:v>24.9698606355789</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -390,10 +411,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>354</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>14.0811455847255</x:v>
+        <x:v>9.64459661474659</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -401,10 +422,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>1283</x:v>
+        <x:v>2500</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>51.0342084327765</x:v>
+        <x:v>12.0557457684332</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -412,10 +433,87 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
+        <x:v>7500</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>36.1672373052997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>2.65708636736268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>1.89998553310508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>0.482229830737329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>2.17967883493273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>1.70709360081015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>1283</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>6.18700872835994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
         <x:v>425</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>16.9053301511535</x:v>
+      <x:c r="C11" s="0" t="n">
+        <x:v>2.04947678063365</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
